--- a/Data karyawan.xlsx
+++ b/Data karyawan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>2023-04-21 07:10:37</t>
+  </si>
+  <si>
+    <t>2023-04-23 21:31:26</t>
+  </si>
+  <si>
+    <t>2023-04-23 21:31:31</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +472,34 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data karyawan.xlsx
+++ b/Data karyawan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>2023-04-23 21:31:31</t>
+  </si>
+  <si>
+    <t>2023-04-27 19:45:49</t>
+  </si>
+  <si>
+    <t>2023-04-27 19:47:20</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +506,34 @@
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
